--- a/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\DW_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDDC400-022F-4DA4-B613-432121854F11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86005547-B90E-487A-9BBE-C9AAD4371AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="928" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="285" yWindow="6495" windowWidth="14400" windowHeight="7455" tabRatio="928" firstSheet="1" activeTab="3" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_Sedan_HambaLG_f" sheetId="10" r:id="rId1"/>
     <sheet name="DWA_Sedan_HambaLG_r" sheetId="9" r:id="rId2"/>
     <sheet name="DWA_Sedan_Hamba_r" sheetId="8" r:id="rId3"/>
     <sheet name="DWA_Bus_Makhulu_r" sheetId="6" r:id="rId4"/>
-    <sheet name="DWA_Trailer1Axle_r" sheetId="7" r:id="rId5"/>
+    <sheet name="DWA_Trailer1Axle_f" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="54">
   <si>
     <t>Units</t>
   </si>
@@ -194,6 +199,9 @@
   </si>
   <si>
     <t>Used for rear axle</t>
+  </si>
+  <si>
+    <t>Also in steering</t>
   </si>
 </sst>
 </file>
@@ -230,7 +238,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +275,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -280,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -336,6 +350,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,7 +757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,30 +766,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D0CCD1-6525-4A5F-A6BD-4AB2D71C1028}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="15" width="6.6640625" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -793,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -807,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -824,7 +840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -843,7 +859,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -877,7 +893,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -909,7 +925,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -941,7 +957,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -960,7 +976,7 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -994,7 +1010,7 @@
         <v>0.51255285714285714</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -1026,7 +1042,7 @@
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -1058,7 +1074,7 @@
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -1074,7 +1090,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1108,7 +1124,7 @@
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1140,7 +1156,7 @@
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -1156,7 +1172,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -1172,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -1188,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -1208,7 +1224,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -1228,7 +1244,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -1246,7 +1262,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -1258,18 +1274,18 @@
         <v>12</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="14">
-        <v>0.24779999999999999</v>
+      <c r="F21" s="11">
+        <v>0.15379999999999999</v>
       </c>
       <c r="G21" s="14">
-        <v>0.52560000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="H21" s="14">
-        <v>0.37421428571428578</v>
+        <v>0.24</v>
       </c>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -1283,14 +1299,14 @@
         <v>0.15379999999999999</v>
       </c>
       <c r="G22" s="11">
-        <v>0.86560000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="H22" s="11">
-        <v>0.37421428571428578</v>
+        <v>0.23</v>
       </c>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -1309,7 +1325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1327,7 +1343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
@@ -1343,10 +1359,10 @@
         <v>-2.6557142857142869E-3</v>
       </c>
       <c r="G25" s="11">
-        <v>0.44059999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="H25" s="11">
-        <v>0.72138857142857149</v>
+        <v>0.65</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>34</v>
@@ -1357,14 +1373,14 @@
       </c>
       <c r="M25" s="30">
         <f>G25</f>
-        <v>0.44059999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="N25" s="30">
         <f t="shared" ref="N25:N26" si="3">H25</f>
-        <v>0.72138857142857149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
         <v>35</v>
@@ -1378,10 +1394,10 @@
         <v>5.5166428571428582E-2</v>
       </c>
       <c r="G26" s="11">
-        <v>0.7700999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H26" s="11">
-        <v>0.10791857142857141</v>
+        <v>0.19</v>
       </c>
       <c r="L26" s="30">
         <f>-F26</f>
@@ -1389,14 +1405,14 @@
       </c>
       <c r="M26" s="30">
         <f t="shared" ref="M26" si="4">G26</f>
-        <v>0.7700999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="N26" s="30">
         <f t="shared" si="3"/>
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -1412,7 +1428,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -1428,7 +1444,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>38</v>
       </c>
@@ -1449,7 +1465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
         <v>41</v>
@@ -1465,7 +1481,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -1481,7 +1497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
@@ -1516,7 +1532,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F0D1E1-D28F-4269-ADB3-14F412D040C5}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -1525,21 +1541,21 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1559,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1573,7 +1589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1603,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1601,7 +1617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1623,7 +1639,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -1643,7 +1659,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -1663,7 +1679,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -1679,7 +1695,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1701,7 +1717,7 @@
         <v>0.51255285714285714</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -1721,7 +1737,7 @@
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -1741,7 +1757,7 @@
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -1757,7 +1773,7 @@
         <v>5.4538000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +1795,7 @@
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1799,7 +1815,7 @@
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -1815,7 +1831,7 @@
         <v>7.0371699999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -1831,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -1847,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -1867,7 +1883,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -1887,7 +1903,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -1905,7 +1921,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -1918,16 +1934,16 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="14">
-        <v>0.24779999999999999</v>
+        <v>-0.13</v>
       </c>
       <c r="G21" s="14">
-        <v>0.52560000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="H21" s="14">
-        <v>0.37421428571428578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -1937,17 +1953,17 @@
         <v>12</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="11">
-        <v>0.15379999999999999</v>
+      <c r="F22" s="14">
+        <v>-0.13</v>
       </c>
       <c r="G22" s="11">
-        <v>0.86560000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="H22" s="11">
-        <v>0.37421428571428578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -1963,7 +1979,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1978,7 +1994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
@@ -1993,17 +2009,17 @@
       <c r="F25" s="14">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G25" s="14">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0.72138857142857149</v>
+      <c r="G25" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.65</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
         <v>35</v>
@@ -2016,14 +2032,14 @@
       <c r="F26" s="14">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G26" s="14">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G26" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -2039,7 +2055,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -2055,7 +2071,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>38</v>
       </c>
@@ -2076,7 +2092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
         <v>41</v>
@@ -2092,7 +2108,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -2108,7 +2124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
@@ -2147,7 +2163,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5865A7F1-9B87-42EF-8B88-33D7301648EC}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -2156,21 +2172,21 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="13" width="6.6640625" customWidth="1"/>
+    <col min="11" max="13" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2190,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2218,7 +2234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2233,7 +2249,7 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2246,17 +2262,17 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="14">
-        <v>0.1522</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G5" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H5" s="14">
-        <v>0.20319999999999999</v>
+        <v>0.188</v>
       </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -2267,17 +2283,17 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="14">
-        <v>-0.24780000000000002</v>
+        <v>-0.125</v>
       </c>
       <c r="G6" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H6" s="14">
-        <v>0.15820000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -2288,17 +2304,17 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="14">
-        <v>-4.3799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="14">
-        <v>0.6915</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H7" s="14">
-        <v>0.15620000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -2315,7 +2331,7 @@
       </c>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -2328,17 +2344,17 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="14">
-        <v>0.1522</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="14">
-        <v>0.42499999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H9" s="14">
-        <v>0.42459999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -2349,17 +2365,17 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14">
-        <v>-0.13780000000000001</v>
+        <v>-0.105</v>
       </c>
       <c r="G10" s="14">
-        <v>0.42499999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H10" s="14">
-        <v>0.44409999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -2370,17 +2386,17 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G11" s="14">
-        <v>0.68720000000000003</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H11" s="14">
         <v>0.45</v>
       </c>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -2397,7 +2413,7 @@
       </c>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -2410,17 +2426,17 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="14">
-        <v>-7.8000000000000014E-3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="14">
-        <v>0.68889999999999996</v>
+        <v>0.74</v>
       </c>
       <c r="H13" s="14">
-        <v>0.35329999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -2434,14 +2450,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="14">
-        <v>0.78649999999999998</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="H14" s="14">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -2458,7 +2474,7 @@
       </c>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -2475,7 +2491,7 @@
       </c>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -2492,7 +2508,7 @@
       </c>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -2512,7 +2528,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -2532,7 +2548,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -2550,11 +2566,11 @@
       <c r="I20" s="10"/>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
@@ -2563,17 +2579,19 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="14">
-        <v>0.3</v>
+        <v>-0.13</v>
       </c>
       <c r="G21" s="14">
-        <v>0.30999999999999994</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="H21" s="14">
-        <v>0.50249999999999995</v>
-      </c>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.185</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -2584,17 +2602,17 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="14">
-        <v>-8.9999999999999889E-4</v>
+        <v>-0.13</v>
       </c>
       <c r="G22" s="14">
-        <v>0.68935000000000002</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="H22" s="14">
-        <v>0.30310000000000004</v>
+        <v>0.185</v>
       </c>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -2610,7 +2628,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
@@ -2638,19 +2656,20 @@
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="14">
-        <v>2.2000000000000006E-3</v>
+        <f>-0.01387-0.04</f>
+        <v>-5.3870000000000001E-2</v>
       </c>
       <c r="G25" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.49195</v>
       </c>
       <c r="H25" s="14">
-        <v>0.59760000000000002</v>
+        <v>0.52285999999999999</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
         <v>35</v>
@@ -2661,16 +2680,17 @@
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="14">
-        <v>-4.5700000000000005E-2</v>
+        <f>-0.013587-0.04</f>
+        <v>-5.3587000000000003E-2</v>
       </c>
       <c r="G26" s="14">
-        <v>0.56449999999999989</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="H26" s="14">
-        <v>8.9399999999999966E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -2686,7 +2706,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -2702,7 +2722,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>38</v>
       </c>
@@ -2723,7 +2743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
         <v>41</v>
@@ -2736,10 +2756,10 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="11">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -2755,7 +2775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
@@ -2794,30 +2814,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE893DEB-37D0-4188-A4BB-EF7402021035}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="15" width="6.6640625" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2837,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2851,7 +2871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2865,7 +2885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2880,7 +2900,7 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2899,11 +2919,11 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="H5" s="14">
-        <v>0.33650000000000002</v>
+        <v>0.25920000000000004</v>
       </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -2920,11 +2940,11 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="H6" s="14">
-        <v>0.38650000000000001</v>
+        <v>0.25920000000000004</v>
       </c>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -2945,7 +2965,7 @@
       </c>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -2962,7 +2982,7 @@
       </c>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -2978,14 +2998,14 @@
         <v>0.20500000000000002</v>
       </c>
       <c r="G9" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="H9" s="14">
-        <v>0.73650000000000015</v>
+        <v>0.5544</v>
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -2999,14 +3019,14 @@
         <v>-0.19500000000000001</v>
       </c>
       <c r="G10" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="H10" s="14">
-        <v>0.68650000000000011</v>
+        <v>0.5544</v>
       </c>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -3027,7 +3047,7 @@
       </c>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -3044,7 +3064,7 @@
       </c>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -3067,7 +3087,7 @@
       </c>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -3088,7 +3108,7 @@
       </c>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -3105,7 +3125,7 @@
       </c>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -3122,7 +3142,7 @@
       </c>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -3139,7 +3159,7 @@
       </c>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -3159,7 +3179,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -3179,7 +3199,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -3197,7 +3217,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -3210,17 +3230,17 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="14">
-        <v>0.30499999999999999</v>
+        <v>-0.18</v>
       </c>
       <c r="G21" s="14">
         <v>0.30999999999999994</v>
       </c>
       <c r="H21" s="14">
-        <v>0.61650000000000005</v>
+        <v>0.31</v>
       </c>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -3231,17 +3251,17 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="14">
-        <v>0.22500000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="G22" s="14">
         <v>0.81500000000000006</v>
       </c>
       <c r="H22" s="14">
-        <v>0.47400000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -3258,7 +3278,7 @@
       </c>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -3273,7 +3293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
@@ -3286,10 +3306,11 @@
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="14">
-        <v>5.5E-2</v>
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G25" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="H25" s="14">
         <v>0.73650000000000015</v>
@@ -3298,7 +3319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
         <v>35</v>
@@ -3309,16 +3330,17 @@
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="14">
-        <v>-1.2999999999999999E-3</v>
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
       </c>
       <c r="G26" s="14">
-        <v>0.53050000000000008</v>
+        <v>0.68</v>
       </c>
       <c r="H26" s="14">
         <v>0.26040000000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -3334,7 +3356,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -3350,7 +3372,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>38</v>
       </c>
@@ -3371,7 +3393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
         <v>41</v>
@@ -3384,10 +3406,10 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="14">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -3403,7 +3425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
@@ -3442,30 +3464,30 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24234DD9-185A-452D-BCE2-A06C2E39751B}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="15" width="6.6640625" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3485,7 +3507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3499,7 +3521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3514,7 +3536,7 @@
       </c>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3529,7 +3551,7 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -3545,14 +3567,16 @@
         <v>0.20500000000000002</v>
       </c>
       <c r="G5" s="14">
-        <v>0.23499999999999999</v>
+        <f>0.235+0.1</f>
+        <v>0.33499999999999996</v>
       </c>
       <c r="H5" s="14">
-        <v>0.23249999999999998</v>
+        <f t="shared" ref="H5:H6" si="0">0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
       </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -3566,14 +3590,16 @@
         <v>-0.19500000000000001</v>
       </c>
       <c r="G6" s="14">
-        <v>0.23499999999999999</v>
+        <f>0.235+0.1</f>
+        <v>0.33499999999999996</v>
       </c>
       <c r="H6" s="14">
-        <v>0.28249999999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.16520000000000001</v>
       </c>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -3587,14 +3613,16 @@
         <v>-7.6999999999999994E-3</v>
       </c>
       <c r="G7" s="14">
-        <v>0.68319999999999992</v>
+        <f>0.6832+0.02</f>
+        <v>0.70320000000000005</v>
       </c>
       <c r="H7" s="14">
-        <v>0.1552</v>
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
       </c>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -3611,7 +3639,7 @@
       </c>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -3624,17 +3652,19 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="14">
-        <v>0.20500000000000002</v>
+        <f>0.205-0.14</f>
+        <v>6.4999999999999974E-2</v>
       </c>
       <c r="G9" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="H9" s="14">
-        <v>0.73249999999999993</v>
+        <f>0.5504-0.08-0.08-0.01</f>
+        <v>0.38039999999999996</v>
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -3645,17 +3675,19 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14">
-        <v>-0.19500000000000001</v>
+        <f>-0.195+0.1</f>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="G10" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="H10" s="14">
-        <v>0.68249999999999988</v>
+        <f>0.5504-0.08-0.08-0.01</f>
+        <v>0.38039999999999996</v>
       </c>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -3669,14 +3701,16 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G11" s="14">
-        <v>0.68879999999999997</v>
+        <f>0.6832+0.02</f>
+        <v>0.70320000000000005</v>
       </c>
       <c r="H11" s="14">
-        <v>0.5504</v>
+        <f>0.5504-0.08-0.08-0.01</f>
+        <v>0.38039999999999996</v>
       </c>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -3693,7 +3727,7 @@
       </c>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -3705,18 +3739,18 @@
         <v>12</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="14">
-        <v>2.9400000000000003E-2</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0.68599999999999994</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0.35289999999999999</v>
+      <c r="F13" s="32">
+        <v>0</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H13" s="32">
+        <v>0.26750000000000002</v>
       </c>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -3726,18 +3760,27 @@
         <v>12</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="22">
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H14" s="32">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="22">
         <v>0.01</v>
       </c>
-      <c r="G14" s="24">
+      <c r="L14" s="24">
         <v>0.78599999999999992</v>
       </c>
-      <c r="H14" s="14">
+      <c r="M14" s="14">
         <v>0.35199999999999998</v>
       </c>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -3754,7 +3797,7 @@
       </c>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -3771,7 +3814,7 @@
       </c>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -3788,7 +3831,7 @@
       </c>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -3808,7 +3851,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -3828,7 +3871,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -3846,7 +3889,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -3859,17 +3902,17 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="14">
-        <v>0.30499999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G21" s="14">
         <v>0.30999999999999994</v>
       </c>
       <c r="H21" s="14">
-        <v>0.5625</v>
+        <v>0.19</v>
       </c>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -3880,17 +3923,17 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="14">
-        <v>0.22500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G22" s="14">
-        <v>0.7722</v>
+        <v>0.7</v>
       </c>
       <c r="H22" s="14">
-        <v>0.42</v>
+        <v>0.18</v>
       </c>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -3907,7 +3950,7 @@
       </c>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -3922,7 +3965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
@@ -3938,16 +3981,17 @@
         <v>5.5E-2</v>
       </c>
       <c r="G25" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="H25" s="14">
-        <v>0.68250000000000011</v>
+        <f>0.5504-0.08-0.08</f>
+        <v>0.39039999999999997</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
         <v>35</v>
@@ -3961,13 +4005,14 @@
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="G26" s="14">
-        <v>0.53050000000000008</v>
+        <v>0.68</v>
       </c>
       <c r="H26" s="14">
-        <v>0.15639999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -3983,7 +4028,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -3999,7 +4044,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>38</v>
       </c>
@@ -4014,13 +4059,13 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="11">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
         <v>41</v>
@@ -4033,10 +4078,10 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="11">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -4052,7 +4097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>44</v>
       </c>

--- a/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\DW_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Linkage\DW_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86005547-B90E-487A-9BBE-C9AAD4371AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9FACD7-D030-49D7-BDE2-368E6AF6A64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="6495" windowWidth="14400" windowHeight="7455" tabRatio="928" firstSheet="1" activeTab="3" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="29445" yWindow="2100" windowWidth="12255" windowHeight="13065" tabRatio="928" firstSheet="3" activeTab="5" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_Sedan_HambaLG_f" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DWA_Sedan_Hamba_r" sheetId="8" r:id="rId3"/>
     <sheet name="DWA_Bus_Makhulu_r" sheetId="6" r:id="rId4"/>
     <sheet name="DWA_Trailer1Axle_f" sheetId="7" r:id="rId5"/>
+    <sheet name="DWA_FSAE_Achilles_r" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="55">
   <si>
     <t>Units</t>
   </si>
@@ -202,6 +203,9 @@
   </si>
   <si>
     <t>Also in steering</t>
+  </si>
+  <si>
+    <t>DoubleWishboneA_FSAE_Achilles_r</t>
   </si>
 </sst>
 </file>
@@ -238,7 +242,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +285,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -294,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -315,13 +325,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -336,41 +344,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -469,9 +454,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -509,7 +494,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -615,7 +600,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -757,7 +742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -780,7 +765,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -829,14 +814,12 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -853,11 +836,11 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -870,25 +853,24 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0.29913000000000006</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="23">
         <f>-F6</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="23">
         <f>G6</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="23">
         <f>H6</f>
         <v>0.2452914285714286</v>
       </c>
@@ -902,25 +884,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="23">
         <f>-F5</f>
         <v>-0.29913000000000006</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="23">
         <f>G5</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="23">
         <f>H5</f>
         <v>0.19097000000000003</v>
       </c>
@@ -934,25 +915,24 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>5.2872857142857145E-2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="23">
         <f>-F7</f>
         <v>-5.2872857142857145E-2</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="23">
         <f t="shared" ref="M7:N7" si="0">G7</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="23">
         <f t="shared" si="0"/>
         <v>0.18855571428571433</v>
       </c>
@@ -966,15 +946,14 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>5.8056599999999996</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -987,25 +966,24 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.16634428571428575</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="23">
         <f>-F10</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="23">
         <f>G10</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="23">
         <f>H10</f>
         <v>0.51255285714285714</v>
       </c>
@@ -1019,25 +997,24 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="23">
         <f>-F9</f>
         <v>-0.16634428571428575</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="23">
         <f>G9</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="23">
         <f>H9</f>
         <v>0.53609214285714291</v>
       </c>
@@ -1051,25 +1028,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>-4.8285714285714293E-2</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="23">
         <f>-F11</f>
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="23">
         <f t="shared" ref="M11:N11" si="1">G11</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="23">
         <f t="shared" si="1"/>
         <v>0.54321428571428576</v>
       </c>
@@ -1083,10 +1059,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1101,25 +1076,24 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>9.4157142857142894E-3</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>0.42648357142857141</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="23">
         <f>-F13</f>
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="23">
         <f t="shared" ref="M13:N14" si="2">G13</f>
         <v>0.89449999999999996</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="23">
         <f t="shared" si="2"/>
         <v>0.42648357142857141</v>
       </c>
@@ -1133,25 +1107,24 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>0.36214285714285716</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="23">
         <f>-F14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="23">
         <f t="shared" si="2"/>
         <v>0.99209999999999998</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="23">
         <f t="shared" si="2"/>
         <v>0.36214285714285716</v>
       </c>
@@ -1165,10 +1138,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1181,10 +1153,9 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1197,10 +1168,9 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1210,19 +1180,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.15</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1230,19 +1198,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.05</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1250,17 +1216,14 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1273,17 +1236,16 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>0.65</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>0.24</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1294,17 +1256,16 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>0.91</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>0.23</v>
       </c>
-      <c r="L22" s="28"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1315,13 +1276,12 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1333,81 +1293,78 @@
         <v>8</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>0.62</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>0.65</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="23">
         <f>-F25</f>
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="M25" s="30">
+      <c r="M25" s="23">
         <f>G25</f>
         <v>0.62</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="23">
         <f t="shared" ref="N25:N26" si="3">H25</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="10">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>0.85</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>0.19</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="23">
         <f>-F26</f>
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="23">
         <f t="shared" ref="M26" si="4">G26</f>
         <v>0.85</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="23">
         <f t="shared" si="3"/>
         <v>0.19</v>
       </c>
@@ -1418,13 +1375,12 @@
         <v>36</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -1434,50 +1390,47 @@
         <v>37</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
         <v>0.1</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="11">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="10">
         <v>-0.15</v>
       </c>
     </row>
@@ -1493,7 +1446,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1509,18 +1462,18 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A31 A25:B30 E25:E30">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+  <conditionalFormatting sqref="A25:B30 E25:E30">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1546,7 +1499,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -1595,11 +1548,9 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1628,14 +1579,13 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>0.2452914285714286</v>
       </c>
     </row>
@@ -1648,14 +1598,13 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>-0.29913000000000006</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>0.19097000000000003</v>
       </c>
     </row>
@@ -1668,14 +1617,13 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>-5.2872857142857145E-2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>0.18855571428571433</v>
       </c>
     </row>
@@ -1688,10 +1636,9 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1706,14 +1653,13 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>0.51255285714285714</v>
       </c>
     </row>
@@ -1726,14 +1672,13 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>-0.16634428571428575</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>0.53609214285714291</v>
       </c>
     </row>
@@ -1746,14 +1691,13 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <v>0.54321428571428576</v>
       </c>
     </row>
@@ -1766,10 +1710,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>5.4538000000000002</v>
       </c>
     </row>
@@ -1784,14 +1727,13 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <v>0.42648357142857141</v>
       </c>
     </row>
@@ -1804,14 +1746,13 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="10">
         <v>0.36214285714285716</v>
       </c>
     </row>
@@ -1824,10 +1765,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>7.0371699999999997</v>
       </c>
     </row>
@@ -1840,10 +1780,9 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1856,10 +1795,9 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1869,19 +1807,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.15</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1889,19 +1825,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.05</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1909,17 +1843,14 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1932,14 +1863,13 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>-0.13</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>0.65</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>0.24</v>
       </c>
     </row>
@@ -1952,14 +1882,13 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>-0.13</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>0.91</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>0.23</v>
       </c>
     </row>
@@ -1972,10 +1901,9 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1987,55 +1915,54 @@
         <v>8</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="14">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="10">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>0.62</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>0.65</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="14">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="10">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>0.85</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>0.19</v>
       </c>
     </row>
@@ -2045,13 +1972,12 @@
         <v>36</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -2061,50 +1987,47 @@
         <v>37</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
         <v>0.1</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="11">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="10">
         <v>-0.15</v>
       </c>
     </row>
@@ -2120,7 +2043,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2136,23 +2059,18 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E25:E30 A25:B30">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="A25:B30 E25:E30">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2177,7 +2095,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -2226,11 +2144,9 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2247,7 +2163,7 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -2260,17 +2176,16 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>0.188</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -2281,17 +2196,15 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>-0.125</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>0.15</v>
       </c>
-      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2302,17 +2215,16 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>0.15</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -2323,13 +2235,11 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -2342,17 +2252,16 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>0.1</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>0.42</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -2363,17 +2272,15 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>-0.105</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>0.42</v>
       </c>
-      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -2384,17 +2291,15 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>0</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <v>0.45</v>
       </c>
-      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -2405,13 +2310,11 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>5.4538000000000002</v>
       </c>
-      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -2424,17 +2327,15 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>0.74</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <v>0.33</v>
       </c>
-      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -2445,17 +2346,15 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <v>0.78749999999999998</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="10">
         <v>0.33</v>
       </c>
-      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -2466,13 +2365,11 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>7.0371699999999997</v>
       </c>
-      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -2483,13 +2380,11 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -2500,13 +2395,11 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
-      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -2514,19 +2407,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.15</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -2534,19 +2425,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.05</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -2554,40 +2443,36 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>-0.13</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>0.185</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="24" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2600,17 +2485,15 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>-0.13</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="10">
         <v>0.75900000000000001</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="10">
         <v>0.185</v>
       </c>
-      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -2621,10 +2504,9 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -2636,57 +2518,56 @@
         <v>8</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="25" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="14">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="10">
         <f>-0.01387-0.04</f>
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="10">
         <v>0.49195</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="10">
         <v>0.52285999999999999</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="14">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="10">
         <f>-0.013587-0.04</f>
         <v>-5.3587000000000003E-2</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="10">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="10">
         <v>0.15</v>
       </c>
     </row>
@@ -2696,13 +2577,12 @@
         <v>36</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -2712,50 +2592,47 @@
         <v>37</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
         <v>0.1</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="11">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="10">
         <v>-0.1</v>
       </c>
     </row>
@@ -2771,7 +2648,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2787,23 +2664,18 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E25:E30 A25:B30">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="A25:B30 E25:E30">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2818,17 +2690,17 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29:H30"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -2877,11 +2749,9 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2898,7 +2768,7 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -2911,17 +2781,16 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>0.20500000000000002</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>0.25920000000000004</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -2932,17 +2801,15 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>-0.19500000000000001</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>0.25920000000000004</v>
       </c>
-      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2953,17 +2820,16 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>-7.6999999999999994E-3</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>0.72599999999999998</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>0.25920000000000004</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -2974,13 +2840,11 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -2993,17 +2857,16 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>0.20500000000000002</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>0.46</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>0.5544</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -3014,17 +2877,15 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>-0.19500000000000001</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>0.46</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>0.5544</v>
       </c>
-      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -3035,17 +2896,15 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>0.73160000000000003</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <v>0.5544</v>
       </c>
-      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -3056,13 +2915,11 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>5.4538000000000002</v>
       </c>
-      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -3075,17 +2932,15 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>2.9400000000000003E-2</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>0.7288</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <v>0.49220000000000003</v>
       </c>
-      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -3096,17 +2951,15 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="22">
+      <c r="F14" s="19">
         <v>0.01</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="20">
         <v>0.83834449999999994</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="10">
         <v>0.46136149999999998</v>
       </c>
-      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -3117,13 +2970,11 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>7.0371699999999997</v>
       </c>
-      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -3134,13 +2985,11 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -3151,13 +3000,11 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
-      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -3165,19 +3012,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.11402999999999999</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -3185,19 +3030,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.1</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -3205,17 +3048,14 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -3228,17 +3068,15 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>-0.18</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>0.30999999999999994</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>0.31</v>
       </c>
-      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -3249,17 +3087,15 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>-0.18</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="10">
         <v>0.81500000000000006</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="10">
         <v>0.3</v>
       </c>
-      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -3270,13 +3106,11 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -3286,57 +3120,56 @@
         <v>8</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="25" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="14">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="10">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="10">
         <v>0.62</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="10">
         <v>0.73650000000000015</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="14">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="10">
         <f>-0.0013-0.05</f>
         <v>-5.1300000000000005E-2</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="10">
         <v>0.68</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="10">
         <v>0.26040000000000008</v>
       </c>
     </row>
@@ -3346,13 +3179,12 @@
         <v>36</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -3362,50 +3194,47 @@
         <v>37</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="14">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
         <v>0.1</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="14">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="10">
         <v>-0.1</v>
       </c>
     </row>
@@ -3421,7 +3250,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3437,23 +3266,18 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E25:E30 A25:B30">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A25:B30 E25:E30">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3478,7 +3302,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -3527,14 +3351,11 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3549,7 +3370,7 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3562,19 +3383,18 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>0.20500000000000002</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <f>0.235+0.1</f>
         <v>0.33499999999999996</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <f t="shared" ref="H5:H6" si="0">0.1552+0.08-0.07</f>
         <v>0.16520000000000001</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -3585,19 +3405,17 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>-0.19500000000000001</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <f>0.235+0.1</f>
         <v>0.33499999999999996</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <f t="shared" si="0"/>
         <v>0.16520000000000001</v>
       </c>
-      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -3608,19 +3426,18 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>-7.6999999999999994E-3</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <f>0.6832+0.02</f>
         <v>0.70320000000000005</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <f>0.1552+0.08-0.07</f>
         <v>0.16520000000000001</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -3631,13 +3448,11 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -3650,19 +3465,18 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <f>0.205-0.14</f>
         <v>6.4999999999999974E-2</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>0.48</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <f>0.5504-0.08-0.08-0.01</f>
         <v>0.38039999999999996</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -3673,19 +3487,17 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <f>-0.195+0.1</f>
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>0.48</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <f>0.5504-0.08-0.08-0.01</f>
         <v>0.38039999999999996</v>
       </c>
-      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -3696,19 +3508,17 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <f>0.6832+0.02</f>
         <v>0.70320000000000005</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <f>0.5504-0.08-0.08-0.01</f>
         <v>0.38039999999999996</v>
       </c>
-      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -3719,13 +3529,11 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>5.4538000000000002</v>
       </c>
-      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -3738,17 +3546,15 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="32">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="10">
         <v>0.71099999999999997</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="10">
         <v>0.26750000000000002</v>
       </c>
-      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -3759,24 +3565,22 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="32">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="10">
         <v>0.71099999999999997</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="10">
         <v>0.26750000000000002</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="22">
+      <c r="K14" s="19">
         <v>0.01</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="20">
         <v>0.78599999999999992</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="10">
         <v>0.35199999999999998</v>
       </c>
     </row>
@@ -3789,13 +3593,11 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>7.0371699999999997</v>
       </c>
-      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -3806,13 +3608,11 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -3823,13 +3623,11 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
-      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -3837,19 +3635,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.15</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -3857,19 +3653,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.05</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -3877,17 +3671,14 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -3900,17 +3691,15 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>0.11</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>0.30999999999999994</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>0.19</v>
       </c>
-      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -3921,17 +3710,15 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>0.1</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="10">
         <v>0.7</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="10">
         <v>0.18</v>
       </c>
-      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -3942,13 +3729,11 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -3958,56 +3743,55 @@
         <v>8</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="25" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="14">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="10">
         <v>5.5E-2</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="10">
         <v>0.51</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="10">
         <f>0.5504-0.08-0.08</f>
         <v>0.39039999999999997</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="14">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="10">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="10">
         <v>0.68</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="10">
         <f>0.1552+0.08-0.07</f>
         <v>0.16520000000000001</v>
       </c>
@@ -4018,13 +3802,12 @@
         <v>36</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -4034,50 +3817,47 @@
         <v>37</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
         <v>0.05</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="11">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="10">
         <v>-0.05</v>
       </c>
     </row>
@@ -4093,7 +3873,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4109,23 +3889,621 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E25:E30 A25:B30">
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B30 E25:E30">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545E1A22-4DCB-43D8-9486-9596E0299CA7}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="13" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.23712</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.12457</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.10507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.13123000000000001</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="25">
+        <v>5.8056599999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.23599000000000001</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.25557000000000002</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3.4209999999999997E-2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.182</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.22907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3.5490000000000001E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.32773000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="25">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.53918999999999995</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.23322999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.23322999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <v>1.0491900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1.7819999999999999E-2</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.24518000000000001</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.24814</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.32373000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="25">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <v>3.6529410000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <v>4.3157700000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="10">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A25:B30 E25:E30">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Linkage\DW_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9FACD7-D030-49D7-BDE2-368E6AF6A64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0CC789-9CD0-4169-A340-5ED9F27F2219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="2100" windowWidth="12255" windowHeight="13065" tabRatio="928" firstSheet="3" activeTab="5" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="928" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_Sedan_HambaLG_f" sheetId="10" r:id="rId1"/>
@@ -755,12 +755,12 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1441,7 @@
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1457,7 +1457,7 @@
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1494,7 +1494,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,7 +2038,7 @@
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
@@ -2054,7 +2054,7 @@
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
@@ -2090,7 +2090,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2643,7 @@
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
@@ -2659,7 +2659,7 @@
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
@@ -2695,7 +2695,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,7 +3245,7 @@
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
@@ -3261,7 +3261,7 @@
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
@@ -3293,11 +3293,11 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,7 +3868,7 @@
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
@@ -3884,7 +3884,7 @@
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
@@ -3915,12 +3915,12 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,7 +4471,7 @@
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
@@ -4487,7 +4487,7 @@
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>

--- a/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0CC789-9CD0-4169-A340-5ED9F27F2219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF931FAB-D698-4067-B66E-20C85314F89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="928" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="52">
   <si>
     <t>Units</t>
   </si>
@@ -145,9 +145,6 @@
     <t>sTop</t>
   </si>
   <si>
-    <t>Also appears in Springs, Dampers</t>
-  </si>
-  <si>
     <t>sBottom</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>xMax</t>
   </si>
   <si>
-    <t>Also appears in Dampers</t>
-  </si>
-  <si>
     <t>xMin</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>Lower Arm to Subframe</t>
   </si>
   <si>
-    <t>Also appears in Springs</t>
-  </si>
-  <si>
     <t>DoubleWishboneA_Sedan_Hamba_r</t>
   </si>
   <si>
@@ -196,16 +187,16 @@
     <t>DoubleWishboneA_Trailer1Axle_f</t>
   </si>
   <si>
-    <t>Hardpoints mirrored front/rear about reference</t>
-  </si>
-  <si>
-    <t>Used for rear axle</t>
-  </si>
-  <si>
-    <t>Also in steering</t>
-  </si>
-  <si>
     <t>DoubleWishboneA_FSAE_Achilles_r</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Must  be consistent with steering rack outboard point</t>
   </si>
 </sst>
 </file>
@@ -216,7 +207,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,14 +226,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,12 +270,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -304,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -346,16 +325,130 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -442,6 +535,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -753,14 +851,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection activeCell="J36" sqref="J36"/>
+      <selection pane="topRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,11 +868,11 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -794,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -808,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -817,13 +915,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -836,13 +931,8 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -862,20 +952,8 @@
       <c r="H5" s="10">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="23">
-        <f>-F6</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M5" s="23">
-        <f>G6</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N5" s="23">
-        <f>H6</f>
-        <v>0.2452914285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -893,20 +971,8 @@
       <c r="H6" s="10">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L6" s="23">
-        <f>-F5</f>
-        <v>-0.29913000000000006</v>
-      </c>
-      <c r="M6" s="23">
-        <f>G5</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N6" s="23">
-        <f>H5</f>
-        <v>0.19097000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -924,20 +990,8 @@
       <c r="H7" s="10">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L7" s="23">
-        <f>-F7</f>
-        <v>-5.2872857142857145E-2</v>
-      </c>
-      <c r="M7" s="23">
-        <f t="shared" ref="M7:N7" si="0">G7</f>
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N7" s="23">
-        <f t="shared" si="0"/>
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -951,11 +1005,8 @@
       <c r="H8" s="10">
         <v>5.8056599999999996</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -975,20 +1026,8 @@
       <c r="H9" s="10">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L9" s="23">
-        <f>-F10</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M9" s="23">
-        <f>G10</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N9" s="23">
-        <f>H10</f>
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -1006,20 +1045,8 @@
       <c r="H10" s="10">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L10" s="23">
-        <f>-F9</f>
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="M10" s="23">
-        <f>G9</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N10" s="23">
-        <f>H9</f>
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -1037,20 +1064,8 @@
       <c r="H11" s="10">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L11" s="23">
-        <f>-F11</f>
-        <v>4.8285714285714293E-2</v>
-      </c>
-      <c r="M11" s="23">
-        <f t="shared" ref="M11:N11" si="1">G11</f>
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N11" s="23">
-        <f t="shared" si="1"/>
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -1065,7 +1080,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1085,20 +1100,8 @@
       <c r="H13" s="10">
         <v>0.42648357142857141</v>
       </c>
-      <c r="L13" s="23">
-        <f>-F13</f>
-        <v>-9.4157142857142894E-3</v>
-      </c>
-      <c r="M13" s="23">
-        <f t="shared" ref="M13:N14" si="2">G13</f>
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="N13" s="23">
-        <f t="shared" si="2"/>
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1116,20 +1119,8 @@
       <c r="H14" s="10">
         <v>0.36214285714285716</v>
       </c>
-      <c r="L14" s="23">
-        <f>-F14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="23">
-        <f t="shared" si="2"/>
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="N14" s="23">
-        <f t="shared" si="2"/>
-        <v>0.36214285714285716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -1144,7 +1135,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -1159,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -1174,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -1192,7 +1183,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -1210,7 +1201,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -1225,29 +1216,34 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="26">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.65</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.24</v>
       </c>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -1265,9 +1261,8 @@
       <c r="H22" s="10">
         <v>0.23</v>
       </c>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -1281,11 +1276,8 @@
       <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1298,11 +1290,8 @@
       <c r="H24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
@@ -1313,66 +1302,51 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="10">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="22">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="22">
         <v>0.62</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="22">
         <v>0.65</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="23">
-        <f>-F25</f>
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="M25" s="23">
-        <f>G25</f>
-        <v>0.62</v>
-      </c>
-      <c r="N25" s="23">
-        <f t="shared" ref="N25:N26" si="3">H25</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="10">
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="22">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="22">
         <v>0.85</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="22">
         <v>0.19</v>
       </c>
-      <c r="L26" s="23">
-        <f>-F26</f>
-        <v>-5.5166428571428582E-2</v>
-      </c>
-      <c r="M26" s="23">
-        <f t="shared" ref="M26" si="4">G26</f>
-        <v>0.85</v>
-      </c>
-      <c r="N26" s="23">
-        <f t="shared" si="3"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J26" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -1384,10 +1358,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -1399,44 +1373,53 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="23">
         <v>0.1</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="10">
+      <c r="H30" s="23">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -1447,12 +1430,12 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -1463,17 +1446,30 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30 E25:E30">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1487,14 +1483,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
+      <selection activeCell="J35" sqref="J35"/>
+      <selection pane="topRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1500,7 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1551,7 +1547,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1856,21 +1852,27 @@
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="26">
         <v>-0.13</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.65</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.24</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1932,44 +1934,51 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="10">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="22">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="22">
         <v>0.62</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="22">
         <v>0.65</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="10">
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="22">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="22">
         <v>0.85</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="22">
         <v>0.19</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -1984,7 +1993,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -1998,42 +2007,51 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="23">
         <v>0.1</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="10">
+      <c r="H30" s="23">
         <v>-0.15</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -2044,12 +2062,12 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -2060,17 +2078,30 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30 E25:E30">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2083,14 +2114,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
+      <selection activeCell="J35" sqref="J35"/>
+      <selection pane="topRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2131,7 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2147,7 +2178,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2456,24 +2487,27 @@
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="26">
         <v>-0.13</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.185</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>53</v>
+      <c r="J21" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2535,46 +2569,53 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="10">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="22">
         <f>-0.01387-0.04</f>
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="22">
         <v>0.49195</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="22">
         <v>0.52285999999999999</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="10">
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="22">
         <f>-0.013587-0.04</f>
         <v>-5.3587000000000003E-2</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="22">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="22">
         <v>0.15</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -2589,7 +2630,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -2603,42 +2644,51 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="23">
         <v>0.1</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="10">
+      <c r="H30" s="23">
         <v>-0.1</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -2649,12 +2699,12 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -2665,17 +2715,30 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30 E25:E30">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2688,14 +2751,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
+      <selection activeCell="J35" sqref="J35"/>
+      <selection pane="topRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,7 +2768,7 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2752,7 +2815,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3061,21 +3124,27 @@
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="26">
         <v>-0.18</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.30999999999999994</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.31</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3137,46 +3206,53 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="10">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="22">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="22">
         <v>0.62</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="22">
         <v>0.73650000000000015</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="10">
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="22">
         <f>-0.0013-0.05</f>
         <v>-5.1300000000000005E-2</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="22">
         <v>0.68</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="22">
         <v>0.26040000000000008</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -3191,7 +3267,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -3205,42 +3281,51 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="23">
         <v>0.1</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="10">
+      <c r="H30" s="23">
         <v>-0.1</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -3251,12 +3336,12 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -3267,17 +3352,30 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30 E25:E30">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3290,14 +3388,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection activeCell="J35" sqref="J35"/>
+      <selection pane="topRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,7 +3405,7 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3354,7 +3452,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3574,15 +3672,9 @@
       <c r="H14" s="10">
         <v>0.26750000000000002</v>
       </c>
-      <c r="K14" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="L14" s="20">
-        <v>0.78599999999999992</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0.35199999999999998</v>
-      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -3684,21 +3776,27 @@
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="26">
         <v>0.11</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.30999999999999994</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.19</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3760,46 +3858,53 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="10">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="22">
         <v>5.5E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="22">
         <v>0.51</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="22">
         <f>0.5504-0.08-0.08</f>
         <v>0.39039999999999997</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="10">
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="22">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="22">
         <v>0.68</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="22">
         <f>0.1552+0.08-0.07</f>
         <v>0.16520000000000001</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -3814,7 +3919,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -3828,42 +3933,51 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="23">
         <v>0.05</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="10">
+      <c r="H30" s="23">
         <v>-0.05</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -3874,12 +3988,12 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -3890,17 +4004,30 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30 E25:E30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3913,14 +4040,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
+      <selection activeCell="J35" sqref="J35"/>
+      <selection pane="topRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3930,7 +4057,7 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3977,7 +4104,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4067,7 +4194,7 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>5.8056599999999996</v>
       </c>
     </row>
@@ -4142,7 +4269,7 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -4286,24 +4413,27 @@
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="26">
         <v>1.7819999999999999E-2</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.24518000000000001</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.24814</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>53</v>
+      <c r="J21" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4336,7 +4466,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="25">
+      <c r="H23" s="24">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -4365,44 +4495,51 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="10">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="22">
         <v>0.12</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="25">
         <v>0.22</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="25">
         <v>0.28000000000000003</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="10">
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="22">
         <v>0.12</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="25">
         <v>0.25</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="25">
         <v>0.1</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -4417,7 +4554,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -4431,42 +4568,51 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="23">
         <v>0.03</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="10">
+      <c r="H30" s="23">
         <v>-0.03</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -4477,12 +4623,12 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -4493,17 +4639,30 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30 E25:E30">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_A/sm_car_data_Linkage_DW_A.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF931FAB-D698-4067-B66E-20C85314F89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048F1DF-F3C3-423B-9EFF-45BD07BAFD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="928" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="928" xr2:uid="{5368FE27-1559-47FB-BDD2-777FB297959A}"/>
   </bookViews>
   <sheets>
     <sheet name="DWA_Sedan_HambaLG_f" sheetId="10" r:id="rId1"/>
-    <sheet name="DWA_Sedan_HambaLG_r" sheetId="9" r:id="rId2"/>
-    <sheet name="DWA_Sedan_Hamba_r" sheetId="8" r:id="rId3"/>
+    <sheet name="DWA_Sedan_Hamba_r" sheetId="8" r:id="rId2"/>
+    <sheet name="DWA_Sedan_HambaLG_r" sheetId="9" r:id="rId3"/>
     <sheet name="DWA_Bus_Makhulu_r" sheetId="6" r:id="rId4"/>
     <sheet name="DWA_Trailer1Axle_f" sheetId="7" r:id="rId5"/>
     <sheet name="DWA_FSAE_Achilles_r" sheetId="11" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="54">
   <si>
     <t>Units</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Must  be consistent with steering rack outboard point</t>
+  </si>
+  <si>
+    <t>sARB</t>
+  </si>
+  <si>
+    <t>Must be same as AntiRollBar.sSuspension for attachment to LowerArm</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,43 +340,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -851,14 +835,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J36" sqref="J36"/>
       <selection pane="topRight" activeCell="J36" sqref="J36"/>
       <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +856,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -892,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -906,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -918,7 +902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -932,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -953,7 +937,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -972,7 +956,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -991,169 +975,182 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>5.8056599999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.16634428571428575</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.63060000000000005</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+        <v>5.8056599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10">
-        <v>-0.18372714285714289</v>
+        <v>0.16634428571428575</v>
       </c>
       <c r="G10" s="10">
         <v>0.63060000000000005</v>
       </c>
       <c r="H10" s="10">
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10">
-        <v>-4.8285714285714293E-2</v>
+        <v>-0.18372714285714289</v>
       </c>
       <c r="G11" s="10">
-        <v>0.89280000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="H11" s="10">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-4.8285714285714293E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.89280000000000004</v>
+      </c>
       <c r="H12" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
-        <v>9.4157142857142894E-3</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.89449999999999996</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>9.4157142857142894E-3</v>
       </c>
       <c r="G14" s="10">
-        <v>0.99209999999999998</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H14" s="10">
-        <v>0.36214285714285716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.42648357142857141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H15" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.36214285714285716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" t="s">
@@ -1168,160 +1165,150 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>29</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.65</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.24</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="25">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G22" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.23</v>
+      <c r="G22" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="22">
-        <v>-2.6557142857142869E-3</v>
-      </c>
-      <c r="G25" s="22">
-        <v>0.62</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0.65</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
@@ -1331,37 +1318,47 @@
         <v>50</v>
       </c>
       <c r="F26" s="22">
-        <v>5.5166428571428582E-2</v>
+        <v>-2.6557142857142869E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H26" s="22">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="22">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H27" s="22">
+        <v>0.19</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -1370,36 +1367,30 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>38</v>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="B30" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
@@ -1411,31 +1402,36 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="23">
-        <v>-0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="17" t="s">
-        <v>41</v>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="23">
+        <v>-0.15</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -1449,27 +1445,40 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="27"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+  <conditionalFormatting sqref="A32:A33">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E30">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1479,18 +1488,680 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F0D1E1-D28F-4269-ADB3-14F412D040C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5865A7F1-9B87-42EF-8B88-33D7301648EC}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J35" sqref="J35"/>
       <selection pane="topRight" activeCell="J35" sqref="J35"/>
       <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.188</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-0.125</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-0.105</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <v>5.4538000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <v>7.0371699999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="25">
+        <v>-0.13</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.185</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>-0.13</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="22">
+        <f>-0.01387-0.04</f>
+        <v>-5.3870000000000001E-2</v>
+      </c>
+      <c r="G26" s="22">
+        <v>0.49195</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0.52285999999999999</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="22">
+        <f>-0.013587-0.04</f>
+        <v>-5.3587000000000003E-2</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H27" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <v>3.6529410000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <v>4.3157700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A32:A33">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F0D1E1-D28F-4269-ADB3-14F412D040C5}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J35" sqref="J35"/>
+      <selection pane="topRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +2175,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1524,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1538,7 +2209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +2221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +2235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +2256,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -1604,7 +2275,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -1623,169 +2294,182 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.63060000000000005</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10">
-        <v>-0.16634428571428575</v>
+        <v>0.18372714285714289</v>
       </c>
       <c r="G10" s="10">
         <v>0.63060000000000005</v>
       </c>
       <c r="H10" s="10">
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10">
-        <v>4.8285714285714293E-2</v>
+        <v>-0.16634428571428575</v>
       </c>
       <c r="G11" s="10">
-        <v>0.89280000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="H11" s="10">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>4.8285714285714293E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.89280000000000004</v>
+      </c>
       <c r="H12" s="10">
-        <v>5.4538000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
-        <v>-9.4157142857142894E-3</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.89449999999999996</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+        <v>5.4538000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>-9.4157142857142894E-3</v>
       </c>
       <c r="G14" s="10">
-        <v>0.99209999999999998</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H14" s="10">
-        <v>0.36214285714285716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.42648357142857141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H15" s="10">
-        <v>7.0371699999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.36214285714285716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>7.0371699999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" t="s">
@@ -1800,160 +2484,150 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>29</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="26">
-        <v>-0.13</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.65</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.24</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="25">
         <v>-0.13</v>
       </c>
-      <c r="G22" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.23</v>
+      <c r="G22" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>-0.13</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="22">
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="G25" s="22">
-        <v>0.62</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0.65</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
@@ -1963,37 +2637,47 @@
         <v>50</v>
       </c>
       <c r="F26" s="22">
-        <v>-5.5166428571428582E-2</v>
+        <v>2.6557142857142869E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H26" s="22">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="22">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H27" s="22">
+        <v>0.19</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -2002,36 +2686,30 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>38</v>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="B30" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
@@ -2043,31 +2721,36 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="23">
-        <v>-0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="17" t="s">
-        <v>41</v>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="23">
+        <v>-0.15</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -2081,664 +2764,40 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="27"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+  <conditionalFormatting sqref="A32:A33">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E30">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5865A7F1-9B87-42EF-8B88-33D7301648EC}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J35" sqref="J35"/>
-      <selection pane="topRight" activeCell="J35" sqref="J35"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.188</v>
-      </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10">
-        <v>-0.125</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10">
-        <v>-0.105</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10">
-        <v>5.4538000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <v>7.0371699999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="26">
-        <v>-0.13</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.185</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10">
-        <v>-0.13</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="22">
-        <f>-0.01387-0.04</f>
-        <v>-5.3870000000000001E-2</v>
-      </c>
-      <c r="G25" s="22">
-        <v>0.49195</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0.52285999999999999</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="22">
-        <f>-0.013587-0.04</f>
-        <v>-5.3587000000000003E-2</v>
-      </c>
-      <c r="G26" s="22">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="H26" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <v>3.6529410000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10">
-        <v>4.3157700000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="23">
-        <v>-0.1</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="27"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E30">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2751,14 +2810,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J35" sqref="J35"/>
       <selection pane="topRight" activeCell="J35" sqref="J35"/>
       <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,7 +2831,7 @@
     <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2792,7 +2851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2806,7 +2865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +2877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2833,7 +2892,7 @@
       </c>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2855,7 +2914,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -2874,7 +2933,7 @@
         <v>0.25920000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -2894,54 +2953,62 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8" s="26">
+        <v>-0.05</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.20500000000000002</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.46</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <v>0.5544</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10">
-        <v>-0.19500000000000001</v>
+        <v>0.20500000000000002</v>
       </c>
       <c r="G10" s="10">
         <v>0.46</v>
@@ -2949,115 +3016,120 @@
       <c r="H10" s="10">
         <v>0.5544</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="G11" s="10">
-        <v>0.73160000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="H11" s="10">
         <v>0.5544</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.73160000000000003</v>
+      </c>
       <c r="H12" s="10">
-        <v>5.4538000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>0.5544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2.9400000000000003E-2</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.7288</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10">
-        <v>0.49220000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+        <v>5.4538000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0.83834449999999994</v>
+      <c r="F14" s="10">
+        <v>2.9400000000000003E-2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.7288</v>
       </c>
       <c r="H14" s="10">
-        <v>0.46136149999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.49220000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.83834449999999994</v>
+      </c>
       <c r="H15" s="10">
-        <v>7.0371699999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.46136149999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>7.0371699999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" t="s">
@@ -3072,202 +3144,202 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <v>0.11402999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <v>0.1</v>
+        <v>0.11402999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <v>1.76</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>29</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="26">
-        <v>-0.18</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.30999999999999994</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.31</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="25">
         <v>-0.18</v>
       </c>
-      <c r="G22" s="10">
-        <v>0.81500000000000006</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.3</v>
+      <c r="G22" s="25">
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.31</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>-0.18</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.81500000000000006</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F26" s="22">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G26" s="22">
         <v>0.62</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H26" s="22">
         <v>0.73650000000000015</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J26" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F27" s="22">
         <f>-0.0013-0.05</f>
         <v>-5.1300000000000005E-2</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G27" s="22">
         <v>0.68</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H27" s="22">
         <v>0.26040000000000008</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J27" s="14" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -3276,36 +3348,30 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>38</v>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="B30" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
@@ -3317,31 +3383,36 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="23">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="17" t="s">
-        <v>41</v>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -3355,27 +3426,40 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="27"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+  <conditionalFormatting sqref="A32:A33">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E30">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3388,7 +3472,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -3786,13 +3870,13 @@
       <c r="E21" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="25">
         <v>0.11</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>0.30999999999999994</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>0.19</v>
       </c>
       <c r="J21" s="21" t="s">
@@ -4007,27 +4091,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="27"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B30">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E30">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4040,14 +4121,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J35" sqref="J35"/>
       <selection pane="topRight" activeCell="J35" sqref="J35"/>
       <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,7 +4142,7 @@
     <col min="11" max="13" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4081,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4095,7 +4176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4107,7 +4188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -4122,7 +4203,7 @@
       </c>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -4144,7 +4225,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -4163,7 +4244,7 @@
         <v>0.10507</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -4183,121 +4264,130 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="24">
-        <v>5.8056599999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8" s="26">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.218</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.18</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.23599000000000001</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.22470000000000001</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <v>0.25557000000000002</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+        <v>5.8056599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10">
-        <v>3.4209999999999997E-2</v>
+        <v>0.23599000000000001</v>
       </c>
       <c r="G10" s="10">
-        <v>0.182</v>
+        <v>0.22470000000000001</v>
       </c>
       <c r="H10" s="10">
-        <v>0.22907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.25557000000000002</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10">
-        <v>3.5490000000000001E-2</v>
+        <v>3.4209999999999997E-2</v>
       </c>
       <c r="G11" s="10">
-        <v>0.49149999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="H11" s="10">
-        <v>0.32773000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.22907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="24">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3.5490000000000001E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.32773000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.53918999999999995</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10">
-        <v>0.23322999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" t="s">
@@ -4306,47 +4396,51 @@
       <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="20">
-        <v>0.57499999999999996</v>
+      <c r="G14" s="10">
+        <v>0.53918999999999995</v>
       </c>
       <c r="H14" s="10">
         <v>0.23322999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.57499999999999996</v>
+      </c>
       <c r="H15" s="10">
-        <v>1.0491900000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.23322999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>1.0491900000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" t="s">
@@ -4361,160 +4455,150 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>29</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="26">
-        <v>1.7819999999999999E-2</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.24518000000000001</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.24814</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.49859999999999999</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.32373000000000002</v>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1.7819999999999999E-2</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.24518000000000001</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.24814</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.32373000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="24">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="22">
-        <v>0.12</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0.22</v>
-      </c>
-      <c r="H25" s="25">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
@@ -4526,35 +4610,45 @@
       <c r="F26" s="22">
         <v>0.12</v>
       </c>
-      <c r="G26" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0.1</v>
+      <c r="G26" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0.28000000000000003</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
@@ -4563,36 +4657,30 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>38</v>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="B30" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" t="s">
@@ -4604,31 +4692,36 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="23">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="17" t="s">
-        <v>41</v>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="23">
+        <v>-0.03</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -4642,27 +4735,40 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="27"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+  <conditionalFormatting sqref="A32:A33">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:B30">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E30">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
